--- a/biology/Botanique/Végétation_spontanée/Végétation_spontanée.xlsx
+++ b/biology/Botanique/Végétation_spontanée/Végétation_spontanée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9g%C3%A9tation_spontan%C3%A9e</t>
+          <t>Végétation_spontanée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La végétation spontanée, aussi désignée comme herbes folles ou végétation sauvage est la végétation qui s'implante et croît sans intervention humaine sur un site. La végétation spontanée concerne les bords des routes, les friches et tous les espaces délaissés.
 On parle aussi de la végétation de zones à peine explorées (il y en a de moins en moins) et de flore spontanée pour désigner des espèces endémiques ou indigènes. 
